--- a/biology/Zoologie/Chlosyne_palla/Chlosyne_palla.xlsx
+++ b/biology/Zoologie/Chlosyne_palla/Chlosyne_palla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne palla est un  insecte lépidoptère de la famille des Nymphalidae de la sous-famille des Nymphalinae et du genre Chlosyne.
 </t>
@@ -511,54 +523,53 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne palla a été nommée par Jean-Baptiste Alphonse Dechauffour de Boisduval en 1852.
-Synonymes : Melitaea palla Boisduval, 1852; Lemonias palla ; Dyar, 1903[1].
-Sous-espèces
-Chlosyne palla australomontana Emmel &amp; Mattoon, 1998
+Synonymes : Melitaea palla Boisduval, 1852; Lemonias palla ; Dyar, 1903.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chlosyne palla australomontana Emmel &amp; Mattoon, 1998
 Chlosyne palla calydon Strecker, 1878
 Chlosyne palla flavula Barnes &amp; McDunnough, 1918
 Chlosyne palla sterope (Edwards, 1870)
-Chlosyne palla vallismortis F. Johnson, 1938[1].
-Noms vernaculaires
-Chlosyne palla se nomme en anglais Northern Checkerspot [1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chlosyne_palla</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chlosyne_palla</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlosyne palla est un papillon à damiers orange orange de taille moyenne (son envergure varie entre 30 et 48 mm
-Le dessus présente des lignes de damiers rouge orangé et des lignes de damiers jaunes sur un fond marron avec une partie basale marron.
-Le revers des antérieures est orange à damiers blancs et aux postérieures les damiers blancs dominent[2].
-Chenille
-La chenille est noire, ornée d'épines, de points blancs, de traits orange sur les flancs[3].
-</t>
+Chlosyne palla vallismortis F. Johnson, 1938.</t>
         </is>
       </c>
     </row>
@@ -583,16 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'imago vole en une seule génération entre avril et début août suivant l'altitude[3],[4].
-Chlosyne palla hiberne au stade de chenille[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont  des asters, Aster conspicuus, Aster occidentalis et des  chrysothamnus, Chrysothamnus viscidiflorus, Chrysothamnus paniculatus , Chrysothamnus nauseosus, Erigeron speciosus, Solidago californica [1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne palla se nomme en anglais Northern Checkerspot .
 </t>
         </is>
       </c>
@@ -618,16 +631,235 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne palla est un papillon à damiers orange orange de taille moyenne (son envergure varie entre 30 et 48 mm
+Le dessus présente des lignes de damiers rouge orangé et des lignes de damiers jaunes sur un fond marron avec une partie basale marron.
+Le revers des antérieures est orange à damiers blancs et aux postérieures les damiers blancs dominent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est noire, ornée d'épines, de points blancs, de traits orange sur les flancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole en une seule génération entre avril et début août suivant l'altitude,.
+Chlosyne palla hiberne au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont  des asters, Aster conspicuus, Aster occidentalis et des  chrysothamnus, Chrysothamnus viscidiflorus, Chrysothamnus paniculatus , Chrysothamnus nauseosus, Erigeron speciosus, Solidago californica .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent sur la côte ouest de l'Amérique du Nord, dans les Montagnes Rocheuses de la Colombie-Britannique et l'Alberta au Canada jusqu'à la Californie[1].  Aux États-Unis il est présent dans l'État de Washington, l'Idaho, le Montana, l'Oregon, le Wyoming, l'Utah, le Colorado, la Californie et le sud-ouest du Nevada[2].
-Biotope
-Il est présent dans les clairières de moyenne altitude en montagne[3].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent sur la côte ouest de l'Amérique du Nord, dans les Montagnes Rocheuses de la Colombie-Britannique et l'Alberta au Canada jusqu'à la Californie.  Aux États-Unis il est présent dans l'État de Washington, l'Idaho, le Montana, l'Oregon, le Wyoming, l'Utah, le Colorado, la Californie et le sud-ouest du Nevada.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans les clairières de moyenne altitude en montagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_palla</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
